--- a/Individual/results.xlsx
+++ b/Individual/results.xlsx
@@ -459,10 +459,10 @@
         <v>10.84</v>
       </c>
       <c r="E2">
-        <v>13.85</v>
+        <v>30.59</v>
       </c>
       <c r="F2">
-        <v>2.362564119898215</v>
+        <v>2.362564397100882</v>
       </c>
       <c r="G2">
         <v>2.363</v>
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <v>10.84</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
